--- a/tables/OSM_model_selection_summary_formatted_nomodel.xlsx
+++ b/tables/OSM_model_selection_summary_formatted_nomodel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmya\Documents\GitHub\OSM_red_squirrel_distribution\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidanbrushett\Desktop\projects\OSM_red_squirrel_distribution\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008A38B1-540A-49F5-BDBD-75C1C52C3036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C93145-C873-46CA-96BA-BCE97E55E0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-3315" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -580,21 +580,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9.109375" style="2"/>
-    <col min="10" max="10" width="2" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="2" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="4"/>
@@ -604,7 +606,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="5" t="s">
@@ -626,9 +628,8 @@
         <v>4</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="12" t="s">
@@ -650,9 +651,8 @@
         <v>2.4106284686095051E-7</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="18"/>
@@ -672,9 +672,8 @@
         <v>2.031064447499589E-3</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
@@ -696,9 +695,8 @@
         <v>0.15601515067440611</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -718,9 +716,8 @@
         <v>1.0549366924381639E-3</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -740,9 +737,8 @@
         <v>1.177814561732592E-3</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -762,9 +758,8 @@
         <v>7.2388254329300017E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -784,9 +779,8 @@
         <v>7.2339279580272645E-4</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="18"/>
@@ -806,9 +800,8 @@
         <v>1.8450618922849271E-2</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
@@ -830,9 +823,8 @@
         <v>1.1506888952041459E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -852,9 +844,8 @@
         <v>2.4954336840441638E-3</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -874,9 +865,8 @@
         <v>1.3119862411149631E-3</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -896,9 +886,8 @@
         <v>3.9204709076576937E-2</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -918,9 +907,8 @@
         <v>1.2553251921613429E-2</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -940,9 +928,8 @@
         <v>1.1246622625156529E-3</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="18"/>
@@ -962,9 +949,8 @@
         <v>2.2856794467654991E-2</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="17" t="s">
@@ -986,9 +972,8 @@
         <v>4.890642082991227E-2</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="23"/>
@@ -1008,14 +993,16 @@
         <v>0.56848535088857044</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>